--- a/ExamReg/MockData/Database_ver1.xlsx
+++ b/ExamReg/MockData/Database_ver1.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngatdo/Documents/GitHub/testready/ExamReg/MockData/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33AE00D-5EC4-154F-B3BF-4996C54AE26D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="14200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SINHVIEN" sheetId="1" r:id="rId4"/>
-    <sheet name="MONHOC" sheetId="2" r:id="rId5"/>
-    <sheet name="DAHOC" sheetId="3" r:id="rId6"/>
-    <sheet name="CAMTHI" sheetId="4" r:id="rId7"/>
-    <sheet name="CATHI" sheetId="5" r:id="rId8"/>
-    <sheet name="PHONGTHI" sheetId="6" r:id="rId9"/>
+    <sheet name="SINHVIEN" sheetId="1" r:id="rId1"/>
+    <sheet name="MONHOC" sheetId="2" r:id="rId2"/>
+    <sheet name="DAHOC" sheetId="3" r:id="rId3"/>
+    <sheet name="CAMTHI" sheetId="4" r:id="rId4"/>
+    <sheet name="CATHI" sheetId="5" r:id="rId5"/>
+    <sheet name="PHONGTHI" sheetId="6" r:id="rId6"/>
   </sheets>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="212">
   <si>
     <t>MSSV</t>
   </si>
@@ -70,16 +79,6 @@
   </si>
   <si>
     <t>17/02/1999</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>K62-CACLC1</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Đào Tiến </t>
@@ -667,29 +666,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="d/m/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -705,10 +693,16 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -750,67 +744,44 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -820,25 +791,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff0a0101"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF0A0101"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -1040,7 +1071,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1059,7 +1090,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1089,7 +1120,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1115,7 +1146,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1141,7 +1172,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1167,7 +1198,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1193,7 +1224,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1219,7 +1250,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1245,7 +1276,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1271,7 +1302,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1297,7 +1328,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1310,9 +1341,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1329,7 +1366,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1348,7 +1385,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1374,7 +1411,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1400,7 +1437,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1426,7 +1463,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1452,7 +1489,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1478,7 +1515,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1504,7 +1541,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1530,7 +1567,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1556,7 +1593,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1582,7 +1619,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1595,9 +1632,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1611,7 +1654,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1630,7 +1673,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1660,7 +1703,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1686,7 +1729,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1712,7 +1755,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1738,7 +1781,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1764,7 +1807,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1790,7 +1833,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1816,7 +1859,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1842,7 +1885,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1868,7 +1911,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1881,1442 +1924,1448 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IV49"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1667" defaultRowHeight="19" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.1640625" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="20.1719" style="1" customWidth="1"/>
-    <col min="11" max="256" width="20.1719" style="1" customWidth="1"/>
+    <col min="1" max="256" width="20.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.5" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" ht="18.5" customHeight="1">
+    <row r="2" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>17020045</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s" s="5">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s" s="5">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s" s="5">
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s" s="5">
+      <c r="G2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s" s="5">
+      <c r="H2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" ht="20" customHeight="1">
+    <row r="3" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>17021211</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s" s="5">
+      <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s" s="5">
+      <c r="D3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s" s="5">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s" s="5">
-        <f t="shared" si="0" ref="F3:F49">$F$2</f>
-        <v>18</v>
-      </c>
-      <c r="G3" t="s" s="5">
+      <c r="F3" s="5" t="str">
+        <f t="shared" ref="F3:F49" si="0">$F$2</f>
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s" s="5">
+      <c r="H3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" ht="18.5" customHeight="1">
+    <row r="4" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>17021216</v>
       </c>
-      <c r="B4" t="s" s="5">
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s" s="5">
+      <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s" s="5">
+      <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s" s="5">
+      <c r="F4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G4" t="s" s="5">
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H4" t="s" s="5">
+      <c r="H4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" ht="18.5" customHeight="1">
+    <row r="5" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>17021224</v>
       </c>
-      <c r="B5" t="s" s="5">
+      <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s" s="5">
+      <c r="D5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s" s="5">
+      <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" t="s" s="5">
+      <c r="F5" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G5" t="s" s="5">
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H5" t="s" s="5">
+      <c r="H5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" ht="18.5" customHeight="1">
+    <row r="6" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>17021230</v>
       </c>
-      <c r="B6" t="s" s="5">
+      <c r="B6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s" s="5">
+      <c r="D6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s" s="5">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s" s="5">
+      <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F6" t="s" s="5">
+      <c r="F6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G6" t="s" s="5">
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H6" t="s" s="5">
+      <c r="H6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" ht="18.5" customHeight="1">
+    <row r="7" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>17021231</v>
       </c>
-      <c r="B7" t="s" s="5">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s" s="5">
-        <v>26</v>
+      <c r="B7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D7" s="7">
         <v>36231</v>
       </c>
-      <c r="E7" t="s" s="5">
+      <c r="E7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F7" t="s" s="5">
+      <c r="F7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G7" t="s" s="5">
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H7" t="s" s="5">
+      <c r="H7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" ht="18.5" customHeight="1">
+    <row r="8" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>17021232</v>
       </c>
-      <c r="B8" t="s" s="5">
+      <c r="B8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s" s="5">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s" s="5">
+      <c r="E8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F8" t="s" s="5">
+      <c r="F8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G8" t="s" s="5">
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H8" t="s" s="5">
+      <c r="H8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" ht="18.5" customHeight="1">
+    <row r="9" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>17021234</v>
       </c>
-      <c r="B9" t="s" s="5">
+      <c r="B9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="C9" t="s" s="5">
-        <v>32</v>
       </c>
       <c r="D9" s="7">
         <v>36406</v>
       </c>
-      <c r="E9" t="s" s="5">
+      <c r="E9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F9" t="s" s="5">
+      <c r="F9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G9" t="s" s="5">
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H9" t="s" s="5">
+      <c r="H9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" ht="18.5" customHeight="1">
+    <row r="10" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>17021236</v>
       </c>
-      <c r="B10" t="s" s="5">
+      <c r="B10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s" s="5">
+      <c r="D10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D10" t="s" s="5">
-        <v>35</v>
-      </c>
-      <c r="E10" t="s" s="5">
+      <c r="E10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F10" t="s" s="5">
+      <c r="F10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G10" t="s" s="5">
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s" s="5">
+      <c r="H10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" ht="18.5" customHeight="1">
+    <row r="11" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>17021238</v>
       </c>
-      <c r="B11" t="s" s="5">
+      <c r="B11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C11" t="s" s="5">
+      <c r="D11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D11" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="E11" t="s" s="5">
+      <c r="E11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F11" t="s" s="5">
+      <c r="F11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G11" t="s" s="5">
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s" s="5">
+      <c r="H11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" ht="18.5" customHeight="1">
+    <row r="12" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>17020173</v>
       </c>
-      <c r="B12" t="s" s="5">
+      <c r="B12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="C12" t="s" s="5">
-        <v>40</v>
       </c>
       <c r="D12" s="7">
         <v>35797</v>
       </c>
-      <c r="E12" t="s" s="5">
-        <v>41</v>
-      </c>
-      <c r="F12" t="s" s="5">
+      <c r="E12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G12" t="s" s="5">
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s" s="5">
+      <c r="H12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" ht="18.5" customHeight="1">
+    <row r="13" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>17021247</v>
       </c>
-      <c r="B13" t="s" s="5">
+      <c r="B13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="C13" t="s" s="5">
-        <v>43</v>
       </c>
       <c r="D13" s="7">
         <v>36283</v>
       </c>
-      <c r="E13" t="s" s="5">
+      <c r="E13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F13" t="s" s="5">
+      <c r="F13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G13" t="s" s="5">
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H13" t="s" s="5">
+      <c r="H13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" ht="18.5" customHeight="1">
+    <row r="14" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>17021248</v>
       </c>
-      <c r="B14" t="s" s="5">
+      <c r="B14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C14" t="s" s="5">
-        <v>43</v>
-      </c>
-      <c r="D14" t="s" s="5">
-        <v>45</v>
-      </c>
-      <c r="E14" t="s" s="5">
+      <c r="E14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F14" t="s" s="5">
+      <c r="F14" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G14" t="s" s="5">
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H14" t="s" s="5">
+      <c r="H14" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" ht="18.5" customHeight="1">
+    <row r="15" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>17021252</v>
       </c>
-      <c r="B15" t="s" s="5">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s" s="5">
+      <c r="B15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D15" t="s" s="5">
-        <v>47</v>
-      </c>
-      <c r="E15" t="s" s="5">
+      <c r="E15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F15" t="s" s="5">
+      <c r="F15" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G15" t="s" s="5">
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H15" t="s" s="5">
+      <c r="H15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" ht="18.5" customHeight="1">
+    <row r="16" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>17021251</v>
       </c>
-      <c r="B16" t="s" s="5">
+      <c r="B16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C16" t="s" s="5">
+      <c r="D16" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D16" t="s" s="5">
-        <v>50</v>
-      </c>
-      <c r="E16" t="s" s="5">
+      <c r="E16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F16" t="s" s="5">
+      <c r="F16" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G16" t="s" s="5">
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H16" t="s" s="5">
+      <c r="H16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" ht="18.5" customHeight="1">
+    <row r="17" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>17021253</v>
       </c>
-      <c r="B17" t="s" s="5">
+      <c r="B17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="C17" t="s" s="5">
-        <v>52</v>
       </c>
       <c r="D17" s="7">
         <v>36412</v>
       </c>
-      <c r="E17" t="s" s="5">
+      <c r="E17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F17" t="s" s="5">
+      <c r="F17" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G17" t="s" s="5">
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H17" t="s" s="5">
+      <c r="H17" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" ht="18.5" customHeight="1">
+    <row r="18" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>17020053</v>
       </c>
-      <c r="B18" t="s" s="5">
+      <c r="B18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="C18" t="s" s="5">
-        <v>54</v>
       </c>
       <c r="D18" s="7">
         <v>36285</v>
       </c>
-      <c r="E18" t="s" s="5">
+      <c r="E18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F18" t="s" s="5">
+      <c r="F18" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G18" t="s" s="5">
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H18" t="s" s="5">
+      <c r="H18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" ht="18.5" customHeight="1">
+    <row r="19" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>17020052</v>
       </c>
-      <c r="B19" t="s" s="5">
-        <v>55</v>
-      </c>
-      <c r="C19" t="s" s="5">
+      <c r="B19" s="5" t="s">
         <v>54</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="D19" s="7">
         <v>36259</v>
       </c>
-      <c r="E19" t="s" s="5">
+      <c r="E19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F19" t="s" s="5">
+      <c r="F19" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G19" t="s" s="5">
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H19" t="s" s="5">
+      <c r="H19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" ht="18.5" customHeight="1">
+    <row r="20" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17021258</v>
       </c>
-      <c r="B20" t="s" s="5">
+      <c r="B20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C20" t="s" s="5">
-        <v>54</v>
-      </c>
-      <c r="D20" t="s" s="5">
-        <v>57</v>
-      </c>
-      <c r="E20" t="s" s="5">
+      <c r="E20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F20" t="s" s="5">
+      <c r="F20" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G20" t="s" s="5">
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H20" t="s" s="5">
+      <c r="H20" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" ht="18.5" customHeight="1">
+    <row r="21" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>17021263</v>
       </c>
-      <c r="B21" t="s" s="5">
+      <c r="B21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C21" t="s" s="5">
+      <c r="D21" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D21" t="s" s="5">
-        <v>60</v>
-      </c>
-      <c r="E21" t="s" s="5">
+      <c r="E21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F21" t="s" s="5">
+      <c r="F21" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G21" t="s" s="5">
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H21" t="s" s="5">
+      <c r="H21" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" ht="18.5" customHeight="1">
+    <row r="22" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>17021264</v>
       </c>
-      <c r="B22" t="s" s="5">
+      <c r="B22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C22" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="D22" t="s" s="5">
-        <v>62</v>
-      </c>
-      <c r="E22" t="s" s="5">
+      <c r="E22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F22" t="s" s="5">
+      <c r="F22" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G22" t="s" s="5">
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H22" t="s" s="5">
+      <c r="H22" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" ht="18.5" customHeight="1">
+    <row r="23" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>17021268</v>
       </c>
-      <c r="B23" t="s" s="5">
+      <c r="B23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C23" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="D23" t="s" s="5">
-        <v>64</v>
-      </c>
-      <c r="E23" t="s" s="5">
+      <c r="E23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F23" t="s" s="5">
+      <c r="F23" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G23" t="s" s="5">
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H23" t="s" s="5">
+      <c r="H23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" ht="18.5" customHeight="1">
+    <row r="24" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>17021269</v>
       </c>
-      <c r="B24" t="s" s="5">
+      <c r="B24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="C24" t="s" s="5">
-        <v>66</v>
       </c>
       <c r="D24" s="7">
         <v>36373</v>
       </c>
-      <c r="E24" t="s" s="5">
+      <c r="E24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F24" t="s" s="5">
+      <c r="F24" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G24" t="s" s="5">
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H24" t="s" s="5">
+      <c r="H24" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" ht="18.5" customHeight="1">
+    <row r="25" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>17021270</v>
       </c>
-      <c r="B25" t="s" s="5">
-        <v>67</v>
-      </c>
-      <c r="C25" t="s" s="5">
+      <c r="B25" s="5" t="s">
         <v>66</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="D25" s="7">
         <v>36475</v>
       </c>
-      <c r="E25" t="s" s="5">
+      <c r="E25" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F25" t="s" s="5">
+      <c r="F25" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G25" t="s" s="5">
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H25" t="s" s="5">
+      <c r="H25" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" ht="18.5" customHeight="1">
+    <row r="26" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>17021274</v>
       </c>
-      <c r="B26" t="s" s="5">
+      <c r="B26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="C26" t="s" s="5">
-        <v>69</v>
       </c>
       <c r="D26" s="7">
         <v>36411</v>
       </c>
-      <c r="E26" t="s" s="5">
+      <c r="E26" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F26" t="s" s="5">
+      <c r="F26" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G26" t="s" s="5">
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H26" t="s" s="5">
+      <c r="H26" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" ht="18.5" customHeight="1">
+    <row r="27" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>17021276</v>
       </c>
-      <c r="B27" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="C27" t="s" s="5">
-        <v>70</v>
+      <c r="B27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="D27" s="7">
         <v>36435</v>
       </c>
-      <c r="E27" t="s" s="5">
+      <c r="E27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F27" t="s" s="5">
+      <c r="F27" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G27" t="s" s="5">
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H27" t="s" s="5">
+      <c r="H27" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" ht="18.5" customHeight="1">
+    <row r="28" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>17021279</v>
       </c>
-      <c r="B28" t="s" s="5">
+      <c r="B28" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C28" t="s" s="5">
+      <c r="D28" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D28" t="s" s="5">
-        <v>73</v>
-      </c>
-      <c r="E28" t="s" s="5">
+      <c r="E28" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F28" t="s" s="5">
+      <c r="F28" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G28" t="s" s="5">
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H28" t="s" s="5">
+      <c r="H28" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" ht="18.5" customHeight="1">
+    <row r="29" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>17021285</v>
       </c>
-      <c r="B29" t="s" s="5">
+      <c r="B29" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C29" t="s" s="5">
+      <c r="D29" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D29" t="s" s="5">
-        <v>76</v>
-      </c>
-      <c r="E29" t="s" s="5">
+      <c r="E29" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F29" t="s" s="5">
+      <c r="F29" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G29" t="s" s="5">
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H29" t="s" s="5">
+      <c r="H29" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" ht="18.5" customHeight="1">
+    <row r="30" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>17021288</v>
       </c>
-      <c r="B30" t="s" s="5">
+      <c r="B30" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="C30" t="s" s="5">
-        <v>78</v>
       </c>
       <c r="D30" s="7">
         <v>36227</v>
       </c>
-      <c r="E30" t="s" s="5">
-        <v>41</v>
-      </c>
-      <c r="F30" t="s" s="5">
+      <c r="E30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G30" t="s" s="5">
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H30" t="s" s="5">
+      <c r="H30" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" ht="18.5" customHeight="1">
+    <row r="31" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>17021291</v>
       </c>
-      <c r="B31" t="s" s="5">
+      <c r="B31" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C31" t="s" s="5">
+      <c r="D31" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D31" t="s" s="5">
-        <v>81</v>
-      </c>
-      <c r="E31" t="s" s="5">
-        <v>41</v>
-      </c>
-      <c r="F31" t="s" s="5">
+      <c r="E31" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G31" t="s" s="5">
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H31" t="s" s="5">
+      <c r="H31" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" ht="18.5" customHeight="1">
+    <row r="32" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>17021295</v>
       </c>
-      <c r="B32" t="s" s="5">
+      <c r="B32" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="C32" t="s" s="5">
-        <v>83</v>
       </c>
       <c r="D32" s="7">
         <v>36221</v>
       </c>
-      <c r="E32" t="s" s="5">
+      <c r="E32" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F32" t="s" s="5">
+      <c r="F32" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G32" t="s" s="5">
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H32" t="s" s="5">
+      <c r="H32" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" ht="18.5" customHeight="1">
+    <row r="33" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>17020061</v>
       </c>
-      <c r="B33" t="s" s="5">
+      <c r="B33" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C33" t="s" s="5">
+      <c r="D33" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D33" t="s" s="5">
-        <v>86</v>
-      </c>
-      <c r="E33" t="s" s="5">
-        <v>41</v>
-      </c>
-      <c r="F33" t="s" s="5">
+      <c r="E33" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G33" t="s" s="5">
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H33" t="s" s="5">
+      <c r="H33" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" ht="18.5" customHeight="1">
+    <row r="34" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>17021318</v>
       </c>
-      <c r="B34" t="s" s="5">
+      <c r="B34" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C34" t="s" s="5">
+      <c r="D34" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D34" t="s" s="5">
-        <v>89</v>
-      </c>
-      <c r="E34" t="s" s="5">
+      <c r="E34" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F34" t="s" s="5">
+      <c r="F34" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G34" t="s" s="5">
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H34" t="s" s="5">
+      <c r="H34" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" ht="18.5" customHeight="1">
+    <row r="35" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>17021323</v>
       </c>
-      <c r="B35" t="s" s="5">
+      <c r="B35" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C35" t="s" s="5">
+      <c r="D35" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D35" t="s" s="5">
-        <v>92</v>
-      </c>
-      <c r="E35" t="s" s="5">
+      <c r="E35" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F35" t="s" s="5">
+      <c r="F35" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G35" t="s" s="5">
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H35" t="s" s="5">
+      <c r="H35" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" ht="18.5" customHeight="1">
+    <row r="36" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>17021332</v>
       </c>
-      <c r="B36" t="s" s="5">
+      <c r="B36" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C36" t="s" s="5">
+      <c r="D36" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D36" t="s" s="5">
-        <v>95</v>
-      </c>
-      <c r="E36" t="s" s="5">
-        <v>41</v>
-      </c>
-      <c r="F36" t="s" s="5">
+      <c r="E36" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G36" t="s" s="5">
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H36" t="s" s="5">
+      <c r="H36" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" ht="18.5" customHeight="1">
+    <row r="37" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>17021333</v>
       </c>
-      <c r="B37" t="s" s="5">
+      <c r="B37" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C37" t="s" s="5">
+      <c r="D37" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D37" t="s" s="5">
-        <v>98</v>
-      </c>
-      <c r="E37" t="s" s="5">
+      <c r="E37" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F37" t="s" s="5">
+      <c r="F37" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G37" t="s" s="5">
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G37" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H37" t="s" s="5">
+      <c r="H37" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" ht="18.5" customHeight="1">
+    <row r="38" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>17021336</v>
       </c>
-      <c r="B38" t="s" s="5">
+      <c r="B38" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C38" t="s" s="5">
+      <c r="D38" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D38" t="s" s="5">
-        <v>101</v>
-      </c>
-      <c r="E38" t="s" s="5">
+      <c r="E38" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F38" t="s" s="5">
+      <c r="F38" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G38" t="s" s="5">
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G38" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H38" t="s" s="5">
+      <c r="H38" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" ht="18.5" customHeight="1">
+    <row r="39" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>17021339</v>
       </c>
-      <c r="B39" t="s" s="5">
+      <c r="B39" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C39" t="s" s="5">
+      <c r="D39" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D39" t="s" s="5">
-        <v>104</v>
-      </c>
-      <c r="E39" t="s" s="5">
+      <c r="E39" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F39" t="s" s="5">
+      <c r="F39" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G39" t="s" s="5">
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G39" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H39" t="s" s="5">
+      <c r="H39" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" ht="18.5" customHeight="1">
+    <row r="40" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>17021344</v>
       </c>
-      <c r="B40" t="s" s="5">
+      <c r="B40" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C40" t="s" s="5">
+      <c r="D40" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D40" t="s" s="5">
-        <v>107</v>
-      </c>
-      <c r="E40" t="s" s="5">
+      <c r="E40" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F40" t="s" s="5">
+      <c r="F40" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G40" t="s" s="5">
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G40" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H40" t="s" s="5">
+      <c r="H40" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
     </row>
-    <row r="41" ht="18.5" customHeight="1">
+    <row r="41" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>17021345</v>
       </c>
-      <c r="B41" t="s" s="5">
+      <c r="B41" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C41" t="s" s="5">
+      <c r="D41" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D41" t="s" s="5">
-        <v>110</v>
-      </c>
-      <c r="E41" t="s" s="5">
+      <c r="E41" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F41" t="s" s="5">
+      <c r="F41" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G41" t="s" s="5">
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G41" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H41" t="s" s="5">
+      <c r="H41" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" ht="18.5" customHeight="1">
+    <row r="42" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>17021346</v>
       </c>
-      <c r="B42" t="s" s="5">
+      <c r="B42" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C42" t="s" s="5">
+      <c r="D42" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D42" t="s" s="5">
-        <v>113</v>
-      </c>
-      <c r="E42" t="s" s="5">
-        <v>41</v>
-      </c>
-      <c r="F42" t="s" s="5">
+      <c r="E42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G42" t="s" s="5">
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G42" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H42" t="s" s="5">
+      <c r="H42" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
     </row>
-    <row r="43" ht="18.5" customHeight="1">
+    <row r="43" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>17021347</v>
       </c>
-      <c r="B43" t="s" s="5">
+      <c r="B43" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="C43" t="s" s="5">
-        <v>115</v>
       </c>
       <c r="D43" s="7">
         <v>36195</v>
       </c>
-      <c r="E43" t="s" s="5">
+      <c r="E43" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F43" t="s" s="5">
+      <c r="F43" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G43" t="s" s="5">
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G43" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H43" t="s" s="5">
+      <c r="H43" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" ht="18.5" customHeight="1">
+    <row r="44" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>17021348</v>
       </c>
-      <c r="B44" t="s" s="5">
-        <v>36</v>
-      </c>
-      <c r="C44" t="s" s="5">
+      <c r="B44" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D44" t="s" s="5">
-        <v>117</v>
-      </c>
-      <c r="E44" t="s" s="5">
+      <c r="E44" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F44" t="s" s="5">
+      <c r="F44" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G44" t="s" s="5">
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G44" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H44" t="s" s="5">
+      <c r="H44" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
     </row>
-    <row r="45" ht="18.5" customHeight="1">
+    <row r="45" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>17021350</v>
       </c>
-      <c r="B45" t="s" s="5">
+      <c r="B45" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C45" t="s" s="5">
-        <v>116</v>
-      </c>
-      <c r="D45" t="s" s="5">
-        <v>119</v>
-      </c>
-      <c r="E45" t="s" s="5">
+      <c r="E45" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F45" t="s" s="5">
+      <c r="F45" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G45" t="s" s="5">
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G45" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H45" t="s" s="5">
+      <c r="H45" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" ht="18.5" customHeight="1">
+    <row r="46" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>17021351</v>
       </c>
-      <c r="B46" t="s" s="5">
+      <c r="B46" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="C46" t="s" s="5">
-        <v>121</v>
       </c>
       <c r="D46" s="7">
         <v>36380</v>
       </c>
-      <c r="E46" t="s" s="5">
+      <c r="E46" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F46" t="s" s="5">
+      <c r="F46" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G46" t="s" s="5">
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G46" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H46" t="s" s="5">
+      <c r="H46" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
     </row>
-    <row r="47" ht="18.5" customHeight="1">
+    <row r="47" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>17021353</v>
       </c>
-      <c r="B47" t="s" s="5">
+      <c r="B47" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C47" t="s" s="5">
-        <v>121</v>
-      </c>
-      <c r="D47" t="s" s="5">
-        <v>123</v>
-      </c>
-      <c r="E47" t="s" s="5">
+      <c r="E47" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F47" t="s" s="5">
+      <c r="F47" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G47" t="s" s="5">
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G47" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H47" t="s" s="5">
+      <c r="H47" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
     </row>
-    <row r="48" ht="18.5" customHeight="1">
+    <row r="48" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>17021359</v>
       </c>
-      <c r="B48" t="s" s="5">
+      <c r="B48" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="C48" t="s" s="5">
-        <v>125</v>
       </c>
       <c r="D48" s="7">
         <v>36440</v>
       </c>
-      <c r="E48" t="s" s="5">
+      <c r="E48" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F48" t="s" s="5">
+      <c r="F48" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G48" t="s" s="5">
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G48" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H48" t="s" s="5">
+      <c r="H48" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
     </row>
-    <row r="49" ht="18.5" customHeight="1">
+    <row r="49" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>17021360</v>
       </c>
-      <c r="B49" t="s" s="5">
+      <c r="B49" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C49" t="s" s="5">
+      <c r="D49" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D49" t="s" s="5">
-        <v>128</v>
-      </c>
-      <c r="E49" t="s" s="5">
+      <c r="E49" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F49" t="s" s="5">
+      <c r="F49" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G49" t="s" s="5">
+        <v>K62-CACLC1</v>
+      </c>
+      <c r="G49" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H49" t="s" s="5">
+      <c r="H49" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I49" s="3"/>
@@ -3324,7 +3373,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3332,39 +3381,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.1719" style="8" customWidth="1"/>
-    <col min="2" max="2" width="62.1719" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.3203" style="8" customWidth="1"/>
-    <col min="4" max="5" width="10.8516" style="8" customWidth="1"/>
-    <col min="6" max="256" width="10.8516" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="62.1640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="8" customWidth="1"/>
+    <col min="4" max="256" width="10.83203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.5" customHeight="1">
-      <c r="A1" t="s" s="9">
+    <row r="1" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B1" t="s" s="9">
+      <c r="C1" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="C1" t="s" s="9">
-        <v>131</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" ht="18.5" customHeight="1">
-      <c r="A2" t="s" s="9">
+    <row r="2" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>132</v>
-      </c>
-      <c r="B2" t="s" s="9">
-        <v>133</v>
       </c>
       <c r="C2" s="10">
         <v>3</v>
@@ -3372,12 +3422,12 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="18.5" customHeight="1">
-      <c r="A3" t="s" s="9">
+    <row r="3" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>134</v>
-      </c>
-      <c r="B3" t="s" s="9">
-        <v>135</v>
       </c>
       <c r="C3" s="10">
         <v>3</v>
@@ -3385,12 +3435,12 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="18.5" customHeight="1">
-      <c r="A4" t="s" s="9">
+    <row r="4" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>136</v>
-      </c>
-      <c r="B4" t="s" s="9">
-        <v>137</v>
       </c>
       <c r="C4" s="10">
         <v>3</v>
@@ -3398,12 +3448,12 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="18.5" customHeight="1">
-      <c r="A5" t="s" s="9">
+    <row r="5" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="B5" t="s" s="9">
-        <v>139</v>
       </c>
       <c r="C5" s="10">
         <v>4</v>
@@ -3411,12 +3461,12 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="18.5" customHeight="1">
-      <c r="A6" t="s" s="9">
+    <row r="6" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="B6" t="s" s="9">
-        <v>141</v>
       </c>
       <c r="C6" s="10">
         <v>2</v>
@@ -3424,12 +3474,12 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="18.5" customHeight="1">
-      <c r="A7" t="s" s="9">
+    <row r="7" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="B7" t="s" s="9">
-        <v>143</v>
       </c>
       <c r="C7" s="10">
         <v>3</v>
@@ -3437,12 +3487,12 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="18.5" customHeight="1">
-      <c r="A8" t="s" s="9">
+    <row r="8" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="B8" t="s" s="9">
-        <v>145</v>
       </c>
       <c r="C8" s="10">
         <v>3</v>
@@ -3450,12 +3500,12 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="18.5" customHeight="1">
-      <c r="A9" t="s" s="9">
+    <row r="9" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>146</v>
-      </c>
-      <c r="B9" t="s" s="9">
-        <v>147</v>
       </c>
       <c r="C9" s="10">
         <v>2</v>
@@ -3463,12 +3513,12 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="18.5" customHeight="1">
-      <c r="A10" t="s" s="9">
+    <row r="10" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>148</v>
-      </c>
-      <c r="B10" t="s" s="9">
-        <v>149</v>
       </c>
       <c r="C10" s="10">
         <v>3</v>
@@ -3476,12 +3526,12 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" ht="18.5" customHeight="1">
-      <c r="A11" t="s" s="9">
+    <row r="11" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>150</v>
-      </c>
-      <c r="B11" t="s" s="9">
-        <v>151</v>
       </c>
       <c r="C11" s="10">
         <v>3</v>
@@ -3489,12 +3539,12 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" ht="18.5" customHeight="1">
-      <c r="A12" t="s" s="9">
+    <row r="12" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>152</v>
-      </c>
-      <c r="B12" t="s" s="9">
-        <v>153</v>
       </c>
       <c r="C12" s="10">
         <v>3</v>
@@ -3502,12 +3552,12 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" ht="18.5" customHeight="1">
-      <c r="A13" t="s" s="9">
+    <row r="13" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>154</v>
-      </c>
-      <c r="B13" t="s" s="9">
-        <v>155</v>
       </c>
       <c r="C13" s="10">
         <v>2</v>
@@ -3515,12 +3565,12 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" ht="18.5" customHeight="1">
-      <c r="A14" t="s" s="9">
+    <row r="14" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>156</v>
-      </c>
-      <c r="B14" t="s" s="9">
-        <v>157</v>
       </c>
       <c r="C14" s="10">
         <v>4</v>
@@ -3528,12 +3578,12 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" ht="18.5" customHeight="1">
-      <c r="A15" t="s" s="9">
+    <row r="15" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>158</v>
-      </c>
-      <c r="B15" t="s" s="9">
-        <v>159</v>
       </c>
       <c r="C15" s="10">
         <v>3</v>
@@ -3541,12 +3591,12 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" ht="18.5" customHeight="1">
-      <c r="A16" t="s" s="9">
+    <row r="16" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>160</v>
-      </c>
-      <c r="B16" t="s" s="9">
-        <v>161</v>
       </c>
       <c r="C16" s="10">
         <v>3</v>
@@ -3554,12 +3604,12 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" ht="18.5" customHeight="1">
-      <c r="A17" t="s" s="9">
+    <row r="17" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>162</v>
-      </c>
-      <c r="B17" t="s" s="9">
-        <v>163</v>
       </c>
       <c r="C17" s="10">
         <v>5</v>
@@ -3567,12 +3617,12 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" ht="18.5" customHeight="1">
-      <c r="A18" t="s" s="9">
+    <row r="18" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>164</v>
-      </c>
-      <c r="B18" t="s" s="9">
-        <v>165</v>
       </c>
       <c r="C18" s="10">
         <v>5</v>
@@ -3580,12 +3630,12 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" ht="18.5" customHeight="1">
-      <c r="A19" t="s" s="9">
+    <row r="19" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>166</v>
-      </c>
-      <c r="B19" t="s" s="9">
-        <v>167</v>
       </c>
       <c r="C19" s="10">
         <v>5</v>
@@ -3593,12 +3643,12 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" ht="18.5" customHeight="1">
-      <c r="A20" t="s" s="9">
+    <row r="20" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>168</v>
-      </c>
-      <c r="B20" t="s" s="9">
-        <v>169</v>
       </c>
       <c r="C20" s="10">
         <v>5</v>
@@ -3606,12 +3656,12 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" ht="18.5" customHeight="1">
-      <c r="A21" t="s" s="9">
+    <row r="21" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>170</v>
-      </c>
-      <c r="B21" t="s" s="9">
-        <v>171</v>
       </c>
       <c r="C21" s="10">
         <v>4</v>
@@ -3619,12 +3669,12 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" ht="18.5" customHeight="1">
-      <c r="A22" t="s" s="9">
+    <row r="22" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>172</v>
-      </c>
-      <c r="B22" t="s" s="9">
-        <v>173</v>
       </c>
       <c r="C22" s="10">
         <v>3</v>
@@ -3632,12 +3682,12 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" ht="18.5" customHeight="1">
-      <c r="A23" t="s" s="9">
+    <row r="23" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>174</v>
-      </c>
-      <c r="B23" t="s" s="9">
-        <v>175</v>
       </c>
       <c r="C23" s="10">
         <v>4</v>
@@ -3645,12 +3695,12 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" ht="18.5" customHeight="1">
-      <c r="A24" t="s" s="9">
+    <row r="24" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>176</v>
-      </c>
-      <c r="B24" t="s" s="9">
-        <v>177</v>
       </c>
       <c r="C24" s="10">
         <v>4</v>
@@ -3660,7 +3710,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3668,797 +3718,943 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:IV115"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.8516" style="11" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" style="11" customWidth="1"/>
     <col min="2" max="2" width="21" style="11" customWidth="1"/>
-    <col min="3" max="256" width="10.8516" style="11" customWidth="1"/>
+    <col min="3" max="256" width="10.83203125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19" customHeight="1">
-      <c r="A1" t="s" s="12">
+    <row r="1" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="12">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" ht="19" customHeight="1">
+      <c r="B1" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
         <v>17020045</v>
       </c>
-      <c r="B2" t="s" s="14">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" ht="19" customHeight="1">
+      <c r="B2" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>17021211</v>
       </c>
-      <c r="B3" t="s" s="14">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" ht="19" customHeight="1">
+      <c r="B3" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>17021216</v>
       </c>
-      <c r="B4" t="s" s="14">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" ht="19" customHeight="1">
+      <c r="B4" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>17021224</v>
       </c>
-      <c r="B5" t="s" s="14">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" ht="19" customHeight="1">
+      <c r="B5" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>17021230</v>
       </c>
-      <c r="B6" t="s" s="14">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" ht="19" customHeight="1">
+      <c r="B6" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>17021231</v>
       </c>
-      <c r="B7" t="s" s="14">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" ht="19" customHeight="1">
+      <c r="B7" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>17021232</v>
       </c>
-      <c r="B8" t="s" s="14">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" ht="19" customHeight="1">
+      <c r="B8" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>17021234</v>
       </c>
-      <c r="B9" t="s" s="14">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" ht="19" customHeight="1">
+      <c r="B9" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>17021236</v>
       </c>
-      <c r="B10" t="s" s="14">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" ht="19" customHeight="1">
+      <c r="B10" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>17021238</v>
       </c>
-      <c r="B11" t="s" s="14">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="12" ht="19" customHeight="1">
+      <c r="B11" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>17020173</v>
       </c>
-      <c r="B12" t="s" s="14">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="13" ht="19" customHeight="1">
+      <c r="B12" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>17021247</v>
       </c>
-      <c r="B13" t="s" s="14">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" ht="19" customHeight="1">
+      <c r="B13" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>17021248</v>
       </c>
-      <c r="B14" t="s" s="14">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" ht="19" customHeight="1">
+      <c r="B14" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>17021252</v>
       </c>
-      <c r="B15" t="s" s="14">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" ht="19" customHeight="1">
+      <c r="B15" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>17021251</v>
       </c>
-      <c r="B16" t="s" s="14">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" ht="19" customHeight="1">
+      <c r="B16" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>17021253</v>
       </c>
-      <c r="B17" t="s" s="14">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="18" ht="19" customHeight="1">
+      <c r="B17" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>17020053</v>
       </c>
-      <c r="B18" t="s" s="14">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" ht="19" customHeight="1">
+      <c r="B18" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>17020052</v>
       </c>
-      <c r="B19" t="s" s="14">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="20" ht="19" customHeight="1">
+      <c r="B19" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
         <v>17021258</v>
       </c>
-      <c r="B20" t="s" s="14">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" ht="19" customHeight="1">
+      <c r="B20" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <v>17021263</v>
       </c>
-      <c r="B21" t="s" s="14">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="22" ht="19" customHeight="1">
+      <c r="B21" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
         <v>17021264</v>
       </c>
-      <c r="B22" t="s" s="14">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="23" ht="19" customHeight="1">
+      <c r="B22" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
         <v>17021268</v>
       </c>
-      <c r="B23" t="s" s="14">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="24" ht="19" customHeight="1">
+      <c r="B23" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
         <v>17021269</v>
       </c>
-      <c r="B24" t="s" s="14">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="25" ht="19" customHeight="1">
+      <c r="B24" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
         <v>17021270</v>
       </c>
-      <c r="B25" t="s" s="14">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="26" ht="19" customHeight="1">
+      <c r="B25" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
         <v>17021274</v>
       </c>
-      <c r="B26" t="s" s="14">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" ht="19" customHeight="1">
+      <c r="B26" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
         <v>17021276</v>
       </c>
-      <c r="B27" t="s" s="14">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="28" ht="19" customHeight="1">
+      <c r="B27" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
         <v>17021279</v>
       </c>
-      <c r="B28" t="s" s="14">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="29" ht="19" customHeight="1">
+      <c r="B28" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
         <v>17021285</v>
       </c>
-      <c r="B29" t="s" s="14">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="30" ht="19" customHeight="1">
+      <c r="B29" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
         <v>17021288</v>
       </c>
-      <c r="B30" t="s" s="14">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" ht="19" customHeight="1">
+      <c r="B30" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
         <v>17021291</v>
       </c>
-      <c r="B31" t="s" s="14">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="32" ht="19" customHeight="1">
+      <c r="B31" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
         <v>17021295</v>
       </c>
-      <c r="B32" t="s" s="14">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="33" ht="19" customHeight="1">
+      <c r="B32" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13">
         <v>17020061</v>
       </c>
-      <c r="B33" t="s" s="14">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="34" ht="19" customHeight="1">
+      <c r="B33" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
         <v>17021318</v>
       </c>
-      <c r="B34" t="s" s="14">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="35" ht="19" customHeight="1">
+      <c r="B34" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="13">
         <v>17021323</v>
       </c>
-      <c r="B35" t="s" s="14">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="36" ht="19" customHeight="1">
+      <c r="B35" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13">
         <v>17021332</v>
       </c>
-      <c r="B36" t="s" s="14">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="37" ht="19" customHeight="1">
+      <c r="B36" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="13">
         <v>17021333</v>
       </c>
-      <c r="B37" t="s" s="14">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="38" ht="19" customHeight="1">
+      <c r="B37" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="13">
         <v>17021336</v>
       </c>
-      <c r="B38" t="s" s="14">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="39" ht="19" customHeight="1">
+      <c r="B38" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="13">
         <v>17021339</v>
       </c>
-      <c r="B39" t="s" s="14">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="40" ht="19" customHeight="1">
+      <c r="B39" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="13">
         <v>17021344</v>
       </c>
-      <c r="B40" t="s" s="14">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="41" ht="19" customHeight="1">
+      <c r="B40" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="13">
         <v>17021345</v>
       </c>
-      <c r="B41" t="s" s="14">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="42" ht="19" customHeight="1">
+      <c r="B41" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="13">
         <v>17021346</v>
       </c>
-      <c r="B42" t="s" s="14">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="43" ht="19" customHeight="1">
+      <c r="B42" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="13">
         <v>17021347</v>
       </c>
-      <c r="B43" t="s" s="14">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="44" ht="19" customHeight="1">
+      <c r="B43" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="13">
         <v>17021348</v>
       </c>
-      <c r="B44" t="s" s="14">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="45" ht="19" customHeight="1">
+      <c r="B44" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="13">
         <v>17021350</v>
       </c>
-      <c r="B45" t="s" s="14">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="46" ht="19" customHeight="1">
+      <c r="B45" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="13">
         <v>17021351</v>
       </c>
-      <c r="B46" t="s" s="14">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="47" ht="19" customHeight="1">
+      <c r="B46" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="13">
         <v>17021353</v>
       </c>
-      <c r="B47" t="s" s="14">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="48" ht="19" customHeight="1">
+      <c r="B47" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="13">
         <v>17021359</v>
       </c>
-      <c r="B48" t="s" s="14">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="49" ht="19" customHeight="1">
+      <c r="B48" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="13">
         <v>17021360</v>
       </c>
-      <c r="B49" t="s" s="14">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="50" ht="19" customHeight="1">
+      <c r="B49" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="13">
         <v>17020045</v>
       </c>
-      <c r="B50" t="s" s="14">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="51" ht="19" customHeight="1">
+      <c r="B50" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="13">
         <v>17021211</v>
       </c>
-      <c r="B51" t="s" s="14">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="52" ht="19" customHeight="1">
+      <c r="B51" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="13">
         <v>17021216</v>
       </c>
-      <c r="B52" t="s" s="14">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="53" ht="19" customHeight="1">
+      <c r="B52" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="13">
         <v>17021224</v>
       </c>
-      <c r="B53" t="s" s="14">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="54" ht="19" customHeight="1">
+      <c r="B53" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="13">
         <v>17021230</v>
       </c>
-      <c r="B54" t="s" s="14">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="55" ht="19" customHeight="1">
+      <c r="B54" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="13">
         <v>17021231</v>
       </c>
-      <c r="B55" t="s" s="14">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="56" ht="19" customHeight="1">
+      <c r="B55" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="13">
         <v>17021232</v>
       </c>
-      <c r="B56" t="s" s="14">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="57" ht="19" customHeight="1">
+      <c r="B56" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="13">
         <v>17021234</v>
       </c>
-      <c r="B57" t="s" s="14">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="58" ht="19" customHeight="1">
+      <c r="B57" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="13">
         <v>17021236</v>
       </c>
-      <c r="B58" t="s" s="14">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="59" ht="19" customHeight="1">
+      <c r="B58" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="13">
         <v>17021238</v>
       </c>
-      <c r="B59" t="s" s="14">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="60" ht="19" customHeight="1">
+      <c r="B59" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="13">
         <v>17020173</v>
       </c>
-      <c r="B60" t="s" s="14">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="61" ht="19" customHeight="1">
+      <c r="B60" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="13">
         <v>17021247</v>
       </c>
-      <c r="B61" t="s" s="14">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="62" ht="19" customHeight="1">
+      <c r="B61" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="13">
         <v>17021248</v>
       </c>
-      <c r="B62" t="s" s="14">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="63" ht="19" customHeight="1">
+      <c r="B62" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="13">
         <v>17021252</v>
       </c>
-      <c r="B63" t="s" s="14">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="64" ht="19" customHeight="1">
+      <c r="B63" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="13">
         <v>17021251</v>
       </c>
-      <c r="B64" t="s" s="14">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="65" ht="19" customHeight="1">
+      <c r="B64" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="13">
         <v>17021253</v>
       </c>
-      <c r="B65" t="s" s="14">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="66" ht="19" customHeight="1">
+      <c r="B65" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="13">
         <v>17020053</v>
       </c>
-      <c r="B66" t="s" s="14">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="67" ht="19" customHeight="1">
+      <c r="B66" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="13">
         <v>17020052</v>
       </c>
-      <c r="B67" t="s" s="14">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="68" ht="19" customHeight="1">
+      <c r="B67" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="13">
         <v>17021258</v>
       </c>
-      <c r="B68" t="s" s="14">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="69" ht="19" customHeight="1">
+      <c r="B68" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="13">
         <v>17021263</v>
       </c>
-      <c r="B69" t="s" s="14">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="70" ht="19" customHeight="1">
+      <c r="B69" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="13">
         <v>17021264</v>
       </c>
-      <c r="B70" t="s" s="14">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="71" ht="19" customHeight="1">
+      <c r="B70" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="13">
         <v>17021268</v>
       </c>
-      <c r="B71" t="s" s="14">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="72" ht="19" customHeight="1">
+      <c r="B71" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="13">
         <v>17021269</v>
       </c>
-      <c r="B72" t="s" s="14">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="73" ht="19" customHeight="1">
+      <c r="B72" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="13">
         <v>17021270</v>
       </c>
-      <c r="B73" t="s" s="14">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="74" ht="19" customHeight="1">
+      <c r="B73" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="13">
         <v>17021274</v>
       </c>
-      <c r="B74" t="s" s="14">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="75" ht="19" customHeight="1">
+      <c r="B74" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="13">
         <v>17021276</v>
       </c>
-      <c r="B75" t="s" s="14">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="76" ht="19" customHeight="1">
+      <c r="B75" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="13">
         <v>17021279</v>
       </c>
-      <c r="B76" t="s" s="14">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="77" ht="19" customHeight="1">
+      <c r="B76" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="13">
         <v>17021285</v>
       </c>
-      <c r="B77" t="s" s="14">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="78" ht="19" customHeight="1">
+      <c r="B77" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="13">
         <v>17021288</v>
       </c>
-      <c r="B78" t="s" s="14">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="79" ht="19" customHeight="1">
+      <c r="B78" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="13">
         <v>17021291</v>
       </c>
-      <c r="B79" t="s" s="14">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="80" ht="19" customHeight="1">
+      <c r="B79" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="13">
         <v>17021295</v>
       </c>
-      <c r="B80" t="s" s="14">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="81" ht="19" customHeight="1">
+      <c r="B80" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="13">
         <v>17020061</v>
       </c>
-      <c r="B81" t="s" s="14">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="82" ht="19" customHeight="1">
+      <c r="B81" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="13">
         <v>17021318</v>
       </c>
-      <c r="B82" t="s" s="14">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="83" ht="19" customHeight="1">
+      <c r="B82" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="13">
         <v>17021323</v>
       </c>
-      <c r="B83" t="s" s="14">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="84" ht="19" customHeight="1">
+      <c r="B83" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="13">
         <v>17021332</v>
       </c>
-      <c r="B84" t="s" s="14">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="85" ht="19" customHeight="1">
+      <c r="B84" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="13">
         <v>17021333</v>
       </c>
-      <c r="B85" t="s" s="14">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="86" ht="19" customHeight="1">
+      <c r="B85" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="13">
         <v>17021336</v>
       </c>
-      <c r="B86" t="s" s="14">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="87" ht="19" customHeight="1">
+      <c r="B86" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="13">
         <v>17021339</v>
       </c>
-      <c r="B87" t="s" s="14">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="88" ht="19" customHeight="1">
+      <c r="B87" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="13">
         <v>17021344</v>
       </c>
-      <c r="B88" t="s" s="14">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="89" ht="19" customHeight="1">
+      <c r="B88" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="13">
         <v>17021345</v>
       </c>
-      <c r="B89" t="s" s="14">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="90" ht="19" customHeight="1">
+      <c r="B89" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="13">
         <v>17021346</v>
       </c>
-      <c r="B90" t="s" s="14">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="91" ht="19" customHeight="1">
+      <c r="B90" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="13">
         <v>17021347</v>
       </c>
-      <c r="B91" t="s" s="14">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="92" ht="19" customHeight="1">
+      <c r="B91" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="13">
         <v>17021348</v>
       </c>
-      <c r="B92" t="s" s="14">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="93" ht="19" customHeight="1">
+      <c r="B92" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="13">
         <v>17021350</v>
       </c>
-      <c r="B93" t="s" s="14">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="94" ht="19" customHeight="1">
+      <c r="B93" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="13">
         <v>17021351</v>
       </c>
-      <c r="B94" t="s" s="14">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="95" ht="19" customHeight="1">
+      <c r="B94" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="13">
         <v>17021353</v>
       </c>
-      <c r="B95" t="s" s="14">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="96" ht="19" customHeight="1">
+      <c r="B95" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="13">
         <v>17021359</v>
       </c>
-      <c r="B96" t="s" s="14">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="97" ht="19" customHeight="1">
+      <c r="B96" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="13">
         <v>17021360</v>
       </c>
-      <c r="B97" t="s" s="14">
-        <v>176</v>
+      <c r="B97" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="13">
+        <v>17020045</v>
+      </c>
+      <c r="B98" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="13">
+        <v>17020045</v>
+      </c>
+      <c r="B99" s="19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="13">
+        <v>17020045</v>
+      </c>
+      <c r="B100" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="13">
+        <v>17020045</v>
+      </c>
+      <c r="B101" s="19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="13">
+        <v>17020045</v>
+      </c>
+      <c r="B102" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="13">
+        <v>17020045</v>
+      </c>
+      <c r="B103" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="13">
+        <v>17020045</v>
+      </c>
+      <c r="B104" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="13">
+        <v>17020045</v>
+      </c>
+      <c r="B105" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="13">
+        <v>17020045</v>
+      </c>
+      <c r="B106" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="13">
+        <v>17020045</v>
+      </c>
+      <c r="B107" s="19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="13">
+        <v>17020045</v>
+      </c>
+      <c r="B108" s="19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="13">
+        <v>17020045</v>
+      </c>
+      <c r="B109" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="13">
+        <v>17020045</v>
+      </c>
+      <c r="B110" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="13">
+        <v>17020045</v>
+      </c>
+      <c r="B111" s="19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="13">
+        <v>17020045</v>
+      </c>
+      <c r="B112" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="13">
+        <v>17020045</v>
+      </c>
+      <c r="B113" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="13">
+        <v>17020045</v>
+      </c>
+      <c r="B114" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="13">
+        <v>17020045</v>
+      </c>
+      <c r="B115" s="19" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4466,101 +4662,101 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.8516" style="15" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" style="15" customWidth="1"/>
     <col min="2" max="2" width="21" style="15" customWidth="1"/>
-    <col min="3" max="256" width="10.8516" style="15" customWidth="1"/>
+    <col min="3" max="256" width="10.83203125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19" customHeight="1">
-      <c r="A1" t="s" s="12">
+    <row r="1" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="12">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" ht="19" customHeight="1">
+      <c r="B1" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
         <v>17021234</v>
       </c>
-      <c r="B2" t="s" s="14">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" ht="19" customHeight="1">
+      <c r="B2" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>17021253</v>
       </c>
-      <c r="B3" t="s" s="14">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" ht="19" customHeight="1">
+      <c r="B3" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>17020052</v>
       </c>
-      <c r="B4" t="s" s="14">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" ht="19" customHeight="1">
+      <c r="B4" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>17021295</v>
       </c>
-      <c r="B5" t="s" s="14">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" ht="19" customHeight="1">
+      <c r="B5" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>17021351</v>
       </c>
-      <c r="B6" t="s" s="14">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" ht="19" customHeight="1">
+      <c r="B6" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>17021211</v>
       </c>
-      <c r="B7" t="s" s="14">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" ht="19" customHeight="1">
+      <c r="B7" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>17021231</v>
       </c>
-      <c r="B8" t="s" s="14">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" ht="19" customHeight="1">
+      <c r="B8" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>17021248</v>
       </c>
-      <c r="B9" t="s" s="14">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" ht="19" customHeight="1">
+      <c r="B9" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>17021359</v>
       </c>
-      <c r="B10" t="s" s="14">
-        <v>174</v>
+      <c r="B10" s="14" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4568,1629 +4764,1628 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:IV107"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.8516" style="16" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" style="16" customWidth="1"/>
     <col min="2" max="2" width="13" style="16" customWidth="1"/>
     <col min="3" max="3" width="14" style="16" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="16" customWidth="1"/>
-    <col min="5" max="5" width="10.8516" style="16" customWidth="1"/>
-    <col min="6" max="256" width="10.8516" style="16" customWidth="1"/>
+    <col min="5" max="256" width="10.83203125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.5" customHeight="1">
-      <c r="A1" t="s" s="9">
-        <v>129</v>
-      </c>
-      <c r="B1" t="s" s="9">
+    <row r="1" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C1" t="s" s="9">
+      <c r="D1" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="D1" t="s" s="9">
-        <v>186</v>
-      </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" ht="18.5" customHeight="1">
-      <c r="A2" t="s" s="9">
-        <v>132</v>
+    <row r="2" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="B2" s="17">
         <v>1.541666666666667</v>
       </c>
-      <c r="C2" t="s" s="9">
+      <c r="C2" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D2" t="s" s="9">
-        <v>188</v>
-      </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="18.5" customHeight="1">
-      <c r="A3" t="s" s="9">
-        <v>132</v>
+    <row r="3" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="B3" s="17">
         <v>1.541666666666667</v>
       </c>
-      <c r="C3" t="s" s="9">
-        <v>187</v>
-      </c>
-      <c r="D3" t="s" s="9">
-        <v>189</v>
+      <c r="C3" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>188</v>
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="18.5" customHeight="1">
-      <c r="A4" t="s" s="9">
-        <v>132</v>
+    <row r="4" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="B4" s="17">
         <v>1.541666666666667</v>
       </c>
-      <c r="C4" t="s" s="9">
-        <v>187</v>
-      </c>
-      <c r="D4" t="s" s="9">
-        <v>190</v>
+      <c r="C4" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="18.5" customHeight="1">
-      <c r="A5" t="s" s="9">
-        <v>132</v>
+    <row r="5" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="B5" s="17">
         <v>1.625</v>
       </c>
-      <c r="C5" t="s" s="9">
+      <c r="C5" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D5" t="s" s="9">
-        <v>188</v>
-      </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="18.5" customHeight="1">
-      <c r="A6" t="s" s="9">
-        <v>132</v>
+    <row r="6" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="B6" s="17">
         <v>1.625</v>
       </c>
-      <c r="C6" t="s" s="9">
-        <v>187</v>
-      </c>
-      <c r="D6" t="s" s="9">
-        <v>189</v>
+      <c r="C6" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>188</v>
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="18.5" customHeight="1">
-      <c r="A7" t="s" s="9">
-        <v>134</v>
+    <row r="7" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="B7" s="17">
         <v>1.541666666666667</v>
       </c>
-      <c r="C7" t="s" s="9">
-        <v>187</v>
-      </c>
-      <c r="D7" t="s" s="9">
-        <v>191</v>
+      <c r="C7" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>190</v>
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="18.5" customHeight="1">
-      <c r="A8" t="s" s="9">
-        <v>134</v>
+    <row r="8" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="B8" s="17">
         <v>1.541666666666667</v>
       </c>
-      <c r="C8" t="s" s="9">
-        <v>187</v>
-      </c>
-      <c r="D8" t="s" s="9">
-        <v>192</v>
+      <c r="C8" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="18.5" customHeight="1">
-      <c r="A9" t="s" s="9">
-        <v>134</v>
+    <row r="9" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="B9" s="17">
         <v>1.625</v>
       </c>
-      <c r="C9" t="s" s="9">
-        <v>187</v>
-      </c>
-      <c r="D9" t="s" s="9">
-        <v>190</v>
+      <c r="C9" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="18.5" customHeight="1">
-      <c r="A10" t="s" s="9">
-        <v>134</v>
+    <row r="10" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="B10" s="17">
         <v>1.625</v>
       </c>
-      <c r="C10" t="s" s="9">
-        <v>187</v>
-      </c>
-      <c r="D10" t="s" s="9">
-        <v>191</v>
+      <c r="C10" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>190</v>
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" ht="18.5" customHeight="1">
-      <c r="A11" t="s" s="9">
-        <v>134</v>
+    <row r="11" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="B11" s="17">
         <v>1.625</v>
       </c>
-      <c r="C11" t="s" s="9">
-        <v>187</v>
-      </c>
-      <c r="D11" t="s" s="9">
-        <v>192</v>
+      <c r="C11" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" ht="18.5" customHeight="1">
-      <c r="A12" t="s" s="9">
-        <v>178</v>
+    <row r="12" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="B12" s="17">
         <v>1.333333333333333</v>
       </c>
-      <c r="C12" t="s" s="9">
+      <c r="C12" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D12" t="s" s="9">
-        <v>188</v>
-      </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" ht="18.5" customHeight="1">
-      <c r="A13" t="s" s="9">
-        <v>178</v>
+    <row r="13" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="B13" s="17">
         <v>1.333333333333333</v>
       </c>
-      <c r="C13" t="s" s="9">
-        <v>187</v>
-      </c>
-      <c r="D13" t="s" s="9">
-        <v>189</v>
+      <c r="C13" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>188</v>
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" ht="18.5" customHeight="1">
-      <c r="A14" t="s" s="9">
-        <v>178</v>
+    <row r="14" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="B14" s="17">
         <v>1.333333333333333</v>
       </c>
-      <c r="C14" t="s" s="9">
-        <v>187</v>
-      </c>
-      <c r="D14" t="s" s="9">
-        <v>190</v>
+      <c r="C14" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" ht="18.5" customHeight="1">
-      <c r="A15" t="s" s="9">
-        <v>178</v>
+    <row r="15" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="B15" s="17">
         <v>1.333333333333333</v>
       </c>
-      <c r="C15" t="s" s="9">
-        <v>187</v>
-      </c>
-      <c r="D15" t="s" s="9">
-        <v>191</v>
+      <c r="C15" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>190</v>
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" ht="18.5" customHeight="1">
-      <c r="A16" t="s" s="9">
-        <v>178</v>
+    <row r="16" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="B16" s="17">
         <v>1.333333333333333</v>
       </c>
-      <c r="C16" t="s" s="9">
-        <v>187</v>
-      </c>
-      <c r="D16" t="s" s="9">
-        <v>192</v>
+      <c r="C16" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" ht="18.5" customHeight="1">
-      <c r="A17" t="s" s="9">
-        <v>138</v>
+    <row r="17" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="B17" s="17">
         <v>1.333333333333333</v>
       </c>
-      <c r="C17" t="s" s="9">
-        <v>187</v>
-      </c>
-      <c r="D17" t="s" s="9">
-        <v>193</v>
+      <c r="C17" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>192</v>
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" ht="18.5" customHeight="1">
-      <c r="A18" t="s" s="9">
-        <v>138</v>
+    <row r="18" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="B18" s="17">
         <v>1.333333333333333</v>
       </c>
-      <c r="C18" t="s" s="9">
-        <v>187</v>
-      </c>
-      <c r="D18" t="s" s="9">
-        <v>194</v>
+      <c r="C18" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>193</v>
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" ht="18.5" customHeight="1">
-      <c r="A19" t="s" s="9">
-        <v>138</v>
+    <row r="19" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="B19" s="17">
         <v>1.333333333333333</v>
       </c>
-      <c r="C19" t="s" s="9">
-        <v>187</v>
-      </c>
-      <c r="D19" t="s" s="9">
-        <v>195</v>
+      <c r="C19" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" ht="18.5" customHeight="1">
-      <c r="A20" t="s" s="9">
-        <v>138</v>
+    <row r="20" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="B20" s="17">
         <v>1.333333333333333</v>
       </c>
-      <c r="C20" t="s" s="9">
-        <v>187</v>
-      </c>
-      <c r="D20" t="s" s="9">
-        <v>196</v>
+      <c r="C20" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>195</v>
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" ht="18.5" customHeight="1">
-      <c r="A21" t="s" s="9">
-        <v>138</v>
+    <row r="21" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="B21" s="17">
         <v>1.333333333333333</v>
       </c>
-      <c r="C21" t="s" s="9">
-        <v>187</v>
-      </c>
-      <c r="D21" t="s" s="9">
-        <v>197</v>
+      <c r="C21" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>196</v>
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" ht="18.5" customHeight="1">
-      <c r="A22" t="s" s="9">
-        <v>179</v>
+    <row r="22" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="B22" s="17">
         <v>1.541666666666667</v>
       </c>
-      <c r="C22" t="s" s="9">
-        <v>187</v>
-      </c>
-      <c r="D22" t="s" s="9">
-        <v>193</v>
+      <c r="C22" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>192</v>
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" ht="18.5" customHeight="1">
-      <c r="A23" t="s" s="9">
-        <v>179</v>
+    <row r="23" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="B23" s="17">
         <v>1.541666666666667</v>
       </c>
-      <c r="C23" t="s" s="9">
-        <v>187</v>
-      </c>
-      <c r="D23" t="s" s="9">
-        <v>194</v>
+      <c r="C23" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>193</v>
       </c>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" ht="18.5" customHeight="1">
-      <c r="A24" t="s" s="9">
-        <v>179</v>
+    <row r="24" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="B24" s="17">
         <v>1.541666666666667</v>
       </c>
-      <c r="C24" t="s" s="9">
-        <v>187</v>
-      </c>
-      <c r="D24" t="s" s="9">
-        <v>195</v>
+      <c r="C24" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" ht="18.5" customHeight="1">
-      <c r="A25" t="s" s="9">
-        <v>179</v>
+    <row r="25" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="B25" s="17">
         <v>1.625</v>
       </c>
-      <c r="C25" t="s" s="9">
-        <v>187</v>
-      </c>
-      <c r="D25" t="s" s="9">
-        <v>193</v>
+      <c r="C25" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>192</v>
       </c>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" ht="18.5" customHeight="1">
-      <c r="A26" t="s" s="9">
-        <v>142</v>
+    <row r="26" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="B26" s="17">
         <v>1.625</v>
       </c>
-      <c r="C26" t="s" s="9">
-        <v>187</v>
-      </c>
-      <c r="D26" t="s" s="9">
-        <v>194</v>
+      <c r="C26" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>193</v>
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" ht="18.5" customHeight="1">
-      <c r="A27" t="s" s="9">
-        <v>142</v>
+    <row r="27" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="B27" s="17">
         <v>1.541666666666667</v>
       </c>
-      <c r="C27" t="s" s="9">
-        <v>187</v>
-      </c>
-      <c r="D27" t="s" s="9">
-        <v>196</v>
+      <c r="C27" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>195</v>
       </c>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" ht="18.5" customHeight="1">
-      <c r="A28" t="s" s="9">
-        <v>142</v>
+    <row r="28" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="B28" s="17">
         <v>1.541666666666667</v>
       </c>
-      <c r="C28" t="s" s="9">
-        <v>187</v>
-      </c>
-      <c r="D28" t="s" s="9">
-        <v>197</v>
+      <c r="C28" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>196</v>
       </c>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" ht="18.5" customHeight="1">
-      <c r="A29" t="s" s="9">
-        <v>142</v>
+    <row r="29" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="B29" s="17">
         <v>1.625</v>
       </c>
-      <c r="C29" t="s" s="9">
-        <v>187</v>
-      </c>
-      <c r="D29" t="s" s="9">
-        <v>195</v>
+      <c r="C29" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" ht="18.5" customHeight="1">
-      <c r="A30" t="s" s="9">
-        <v>142</v>
+    <row r="30" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="B30" s="17">
         <v>1.625</v>
       </c>
-      <c r="C30" t="s" s="9">
-        <v>187</v>
-      </c>
-      <c r="D30" t="s" s="9">
-        <v>196</v>
+      <c r="C30" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>195</v>
       </c>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" ht="18.5" customHeight="1">
-      <c r="A31" t="s" s="9">
-        <v>180</v>
+    <row r="31" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>179</v>
       </c>
       <c r="B31" s="17">
         <v>1.625</v>
       </c>
-      <c r="C31" t="s" s="9">
-        <v>187</v>
-      </c>
-      <c r="D31" t="s" s="9">
-        <v>197</v>
+      <c r="C31" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>196</v>
       </c>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" ht="18.5" customHeight="1">
-      <c r="A32" t="s" s="9">
-        <v>180</v>
+    <row r="32" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>179</v>
       </c>
       <c r="B32" s="17">
         <v>1.541666666666667</v>
       </c>
-      <c r="C32" t="s" s="9">
-        <v>198</v>
-      </c>
-      <c r="D32" t="s" s="9">
-        <v>188</v>
+      <c r="C32" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" ht="18.5" customHeight="1">
-      <c r="A33" t="s" s="9">
-        <v>180</v>
+    <row r="33" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>179</v>
       </c>
       <c r="B33" s="17">
         <v>1.541666666666667</v>
       </c>
-      <c r="C33" t="s" s="9">
-        <v>198</v>
-      </c>
-      <c r="D33" t="s" s="9">
-        <v>189</v>
+      <c r="C33" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>188</v>
       </c>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" ht="18.5" customHeight="1">
-      <c r="A34" t="s" s="9">
-        <v>180</v>
+    <row r="34" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>179</v>
       </c>
       <c r="B34" s="17">
         <v>1.541666666666667</v>
       </c>
-      <c r="C34" t="s" s="9">
-        <v>198</v>
-      </c>
-      <c r="D34" t="s" s="9">
-        <v>190</v>
+      <c r="C34" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" ht="18.5" customHeight="1">
-      <c r="A35" t="s" s="9">
-        <v>180</v>
+    <row r="35" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>179</v>
       </c>
       <c r="B35" s="17">
         <v>1.625</v>
       </c>
-      <c r="C35" t="s" s="9">
-        <v>198</v>
-      </c>
-      <c r="D35" t="s" s="9">
-        <v>188</v>
+      <c r="C35" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" ht="18.5" customHeight="1">
-      <c r="A36" t="s" s="9">
-        <v>146</v>
+    <row r="36" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>145</v>
       </c>
       <c r="B36" s="17">
         <v>1.625</v>
       </c>
-      <c r="C36" t="s" s="9">
-        <v>198</v>
-      </c>
-      <c r="D36" t="s" s="9">
-        <v>189</v>
+      <c r="C36" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>188</v>
       </c>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" ht="18.5" customHeight="1">
-      <c r="A37" t="s" s="9">
-        <v>146</v>
+    <row r="37" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>145</v>
       </c>
       <c r="B37" s="17">
         <v>1.541666666666667</v>
       </c>
-      <c r="C37" t="s" s="9">
-        <v>198</v>
-      </c>
-      <c r="D37" t="s" s="9">
-        <v>191</v>
+      <c r="C37" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>190</v>
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" ht="18.5" customHeight="1">
-      <c r="A38" t="s" s="9">
-        <v>146</v>
+    <row r="38" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>145</v>
       </c>
       <c r="B38" s="17">
         <v>1.541666666666667</v>
       </c>
-      <c r="C38" t="s" s="9">
-        <v>198</v>
-      </c>
-      <c r="D38" t="s" s="9">
-        <v>192</v>
+      <c r="C38" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" ht="18.5" customHeight="1">
-      <c r="A39" t="s" s="9">
-        <v>146</v>
+    <row r="39" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>145</v>
       </c>
       <c r="B39" s="17">
         <v>1.625</v>
       </c>
-      <c r="C39" t="s" s="9">
-        <v>198</v>
-      </c>
-      <c r="D39" t="s" s="9">
-        <v>190</v>
+      <c r="C39" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" ht="18.5" customHeight="1">
-      <c r="A40" t="s" s="9">
-        <v>146</v>
+    <row r="40" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>145</v>
       </c>
       <c r="B40" s="17">
         <v>1.625</v>
       </c>
-      <c r="C40" t="s" s="9">
-        <v>198</v>
-      </c>
-      <c r="D40" t="s" s="9">
-        <v>191</v>
+      <c r="C40" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>190</v>
       </c>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" ht="18.5" customHeight="1">
-      <c r="A41" t="s" s="9">
-        <v>181</v>
+    <row r="41" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="B41" s="17">
         <v>1.625</v>
       </c>
-      <c r="C41" t="s" s="9">
-        <v>198</v>
-      </c>
-      <c r="D41" t="s" s="9">
-        <v>192</v>
+      <c r="C41" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" ht="18.5" customHeight="1">
-      <c r="A42" t="s" s="9">
-        <v>181</v>
+    <row r="42" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="B42" s="17">
         <v>1.333333333333333</v>
       </c>
-      <c r="C42" t="s" s="9">
-        <v>198</v>
-      </c>
-      <c r="D42" t="s" s="9">
-        <v>188</v>
+      <c r="C42" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" ht="18.5" customHeight="1">
-      <c r="A43" t="s" s="9">
-        <v>181</v>
+    <row r="43" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="B43" s="17">
         <v>1.333333333333333</v>
       </c>
-      <c r="C43" t="s" s="9">
-        <v>198</v>
-      </c>
-      <c r="D43" t="s" s="9">
-        <v>189</v>
+      <c r="C43" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>188</v>
       </c>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" ht="18.5" customHeight="1">
-      <c r="A44" t="s" s="9">
-        <v>181</v>
+    <row r="44" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="B44" s="17">
         <v>1.333333333333333</v>
       </c>
-      <c r="C44" t="s" s="9">
-        <v>198</v>
-      </c>
-      <c r="D44" t="s" s="9">
-        <v>190</v>
+      <c r="C44" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" ht="18.5" customHeight="1">
-      <c r="A45" t="s" s="9">
-        <v>181</v>
+    <row r="45" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="B45" s="17">
         <v>1.333333333333333</v>
       </c>
-      <c r="C45" t="s" s="9">
-        <v>198</v>
-      </c>
-      <c r="D45" t="s" s="9">
-        <v>191</v>
+      <c r="C45" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>190</v>
       </c>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" ht="18.5" customHeight="1">
-      <c r="A46" t="s" s="9">
-        <v>182</v>
+    <row r="46" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="B46" s="17">
         <v>1.333333333333333</v>
       </c>
-      <c r="C46" t="s" s="9">
-        <v>198</v>
-      </c>
-      <c r="D46" t="s" s="9">
-        <v>192</v>
+      <c r="C46" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" ht="18.5" customHeight="1">
-      <c r="A47" t="s" s="9">
-        <v>182</v>
+    <row r="47" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="B47" s="17">
         <v>1.333333333333333</v>
       </c>
-      <c r="C47" t="s" s="9">
-        <v>198</v>
-      </c>
-      <c r="D47" t="s" s="9">
-        <v>193</v>
+      <c r="C47" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>192</v>
       </c>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" ht="18.5" customHeight="1">
-      <c r="A48" t="s" s="9">
-        <v>182</v>
+    <row r="48" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="B48" s="17">
         <v>1.333333333333333</v>
       </c>
-      <c r="C48" t="s" s="9">
-        <v>198</v>
-      </c>
-      <c r="D48" t="s" s="9">
-        <v>194</v>
+      <c r="C48" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>193</v>
       </c>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" ht="18.5" customHeight="1">
-      <c r="A49" t="s" s="9">
-        <v>182</v>
+    <row r="49" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="B49" s="17">
         <v>1.333333333333333</v>
       </c>
-      <c r="C49" t="s" s="9">
-        <v>198</v>
-      </c>
-      <c r="D49" t="s" s="9">
-        <v>195</v>
+      <c r="C49" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" ht="18.5" customHeight="1">
-      <c r="A50" t="s" s="9">
-        <v>182</v>
+    <row r="50" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="B50" s="17">
         <v>1.333333333333333</v>
       </c>
-      <c r="C50" t="s" s="9">
-        <v>198</v>
-      </c>
-      <c r="D50" t="s" s="9">
-        <v>196</v>
+      <c r="C50" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>195</v>
       </c>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" ht="18.5" customHeight="1">
-      <c r="A51" t="s" s="9">
-        <v>183</v>
+    <row r="51" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
+        <v>182</v>
       </c>
       <c r="B51" s="17">
         <v>1.333333333333333</v>
       </c>
-      <c r="C51" t="s" s="9">
-        <v>198</v>
-      </c>
-      <c r="D51" t="s" s="9">
+      <c r="C51" s="9" t="s">
         <v>197</v>
       </c>
+      <c r="D51" s="9" t="s">
+        <v>196</v>
+      </c>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" ht="18.5" customHeight="1">
-      <c r="A52" t="s" s="9">
-        <v>183</v>
+    <row r="52" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
+        <v>182</v>
       </c>
       <c r="B52" s="17">
         <v>1.541666666666667</v>
       </c>
-      <c r="C52" t="s" s="9">
-        <v>198</v>
-      </c>
-      <c r="D52" t="s" s="9">
-        <v>193</v>
+      <c r="C52" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>192</v>
       </c>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" ht="18.5" customHeight="1">
-      <c r="A53" t="s" s="9">
-        <v>183</v>
+    <row r="53" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="9" t="s">
+        <v>182</v>
       </c>
       <c r="B53" s="17">
         <v>1.541666666666667</v>
       </c>
-      <c r="C53" t="s" s="9">
-        <v>198</v>
-      </c>
-      <c r="D53" t="s" s="9">
-        <v>194</v>
+      <c r="C53" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>193</v>
       </c>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" ht="18.5" customHeight="1">
-      <c r="A54" t="s" s="9">
-        <v>183</v>
+    <row r="54" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="9" t="s">
+        <v>182</v>
       </c>
       <c r="B54" s="17">
         <v>1.541666666666667</v>
       </c>
-      <c r="C54" t="s" s="9">
-        <v>198</v>
-      </c>
-      <c r="D54" t="s" s="9">
-        <v>195</v>
+      <c r="C54" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" ht="18.5" customHeight="1">
-      <c r="A55" t="s" s="9">
-        <v>183</v>
+    <row r="55" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
+        <v>182</v>
       </c>
       <c r="B55" s="17">
         <v>1.625</v>
       </c>
-      <c r="C55" t="s" s="9">
-        <v>198</v>
-      </c>
-      <c r="D55" t="s" s="9">
-        <v>193</v>
+      <c r="C55" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>192</v>
       </c>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" ht="18.5" customHeight="1">
-      <c r="A56" t="s" s="9">
-        <v>154</v>
+    <row r="56" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="B56" s="17">
         <v>1.625</v>
       </c>
-      <c r="C56" t="s" s="9">
-        <v>198</v>
-      </c>
-      <c r="D56" t="s" s="9">
-        <v>194</v>
+      <c r="C56" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>193</v>
       </c>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" ht="18.5" customHeight="1">
-      <c r="A57" t="s" s="9">
-        <v>154</v>
+    <row r="57" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="B57" s="17">
         <v>1.541666666666667</v>
       </c>
-      <c r="C57" t="s" s="9">
-        <v>198</v>
-      </c>
-      <c r="D57" t="s" s="9">
-        <v>196</v>
+      <c r="C57" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>195</v>
       </c>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" ht="18.5" customHeight="1">
-      <c r="A58" t="s" s="9">
-        <v>154</v>
+    <row r="58" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="B58" s="17">
         <v>1.541666666666667</v>
       </c>
-      <c r="C58" t="s" s="9">
-        <v>198</v>
-      </c>
-      <c r="D58" t="s" s="9">
+      <c r="C58" s="9" t="s">
         <v>197</v>
       </c>
+      <c r="D58" s="9" t="s">
+        <v>196</v>
+      </c>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" ht="18.5" customHeight="1">
-      <c r="A59" t="s" s="9">
-        <v>154</v>
+    <row r="59" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="B59" s="17">
         <v>1.625</v>
       </c>
-      <c r="C59" t="s" s="9">
-        <v>198</v>
-      </c>
-      <c r="D59" t="s" s="9">
-        <v>195</v>
+      <c r="C59" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" ht="18.5" customHeight="1">
-      <c r="A60" t="s" s="9">
-        <v>156</v>
+    <row r="60" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="B60" s="17">
         <v>1.625</v>
       </c>
-      <c r="C60" t="s" s="9">
-        <v>198</v>
-      </c>
-      <c r="D60" t="s" s="9">
-        <v>196</v>
+      <c r="C60" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>195</v>
       </c>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" ht="18.5" customHeight="1">
-      <c r="A61" t="s" s="9">
-        <v>156</v>
+    <row r="61" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="B61" s="17">
         <v>1.625</v>
       </c>
-      <c r="C61" t="s" s="9">
-        <v>198</v>
-      </c>
-      <c r="D61" t="s" s="9">
+      <c r="C61" s="9" t="s">
         <v>197</v>
       </c>
+      <c r="D61" s="9" t="s">
+        <v>196</v>
+      </c>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" ht="18.5" customHeight="1">
-      <c r="A62" t="s" s="9">
-        <v>156</v>
+    <row r="62" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="B62" s="17">
         <v>1.541666666666667</v>
       </c>
-      <c r="C62" t="s" s="9">
-        <v>199</v>
-      </c>
-      <c r="D62" t="s" s="9">
-        <v>188</v>
+      <c r="C62" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" ht="18.5" customHeight="1">
-      <c r="A63" t="s" s="9">
-        <v>156</v>
+    <row r="63" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="B63" s="17">
         <v>1.541666666666667</v>
       </c>
-      <c r="C63" t="s" s="9">
-        <v>199</v>
-      </c>
-      <c r="D63" t="s" s="9">
-        <v>189</v>
+      <c r="C63" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>188</v>
       </c>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" ht="18.5" customHeight="1">
-      <c r="A64" t="s" s="9">
-        <v>158</v>
+    <row r="64" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="9" t="s">
+        <v>157</v>
       </c>
       <c r="B64" s="17">
         <v>1.541666666666667</v>
       </c>
-      <c r="C64" t="s" s="9">
-        <v>199</v>
-      </c>
-      <c r="D64" t="s" s="9">
-        <v>190</v>
+      <c r="C64" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" ht="18.5" customHeight="1">
-      <c r="A65" t="s" s="9">
-        <v>158</v>
+    <row r="65" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="9" t="s">
+        <v>157</v>
       </c>
       <c r="B65" s="17">
         <v>1.625</v>
       </c>
-      <c r="C65" t="s" s="9">
-        <v>199</v>
-      </c>
-      <c r="D65" t="s" s="9">
-        <v>188</v>
+      <c r="C65" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" ht="18.5" customHeight="1">
-      <c r="A66" t="s" s="9">
-        <v>158</v>
+    <row r="66" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="9" t="s">
+        <v>157</v>
       </c>
       <c r="B66" s="17">
         <v>1.625</v>
       </c>
-      <c r="C66" t="s" s="9">
-        <v>199</v>
-      </c>
-      <c r="D66" t="s" s="9">
-        <v>189</v>
+      <c r="C66" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>188</v>
       </c>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" ht="18.5" customHeight="1">
-      <c r="A67" t="s" s="9">
-        <v>158</v>
+    <row r="67" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="9" t="s">
+        <v>157</v>
       </c>
       <c r="B67" s="17">
         <v>1.541666666666667</v>
       </c>
-      <c r="C67" t="s" s="9">
-        <v>199</v>
-      </c>
-      <c r="D67" t="s" s="9">
-        <v>191</v>
+      <c r="C67" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>190</v>
       </c>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" ht="18.5" customHeight="1">
-      <c r="A68" t="s" s="9">
-        <v>160</v>
+    <row r="68" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="9" t="s">
+        <v>159</v>
       </c>
       <c r="B68" s="17">
         <v>1.541666666666667</v>
       </c>
-      <c r="C68" t="s" s="9">
-        <v>199</v>
-      </c>
-      <c r="D68" t="s" s="9">
-        <v>192</v>
+      <c r="C68" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" ht="18.5" customHeight="1">
-      <c r="A69" t="s" s="9">
-        <v>160</v>
+    <row r="69" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="9" t="s">
+        <v>159</v>
       </c>
       <c r="B69" s="17">
         <v>1.625</v>
       </c>
-      <c r="C69" t="s" s="9">
-        <v>199</v>
-      </c>
-      <c r="D69" t="s" s="9">
-        <v>190</v>
+      <c r="C69" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" ht="18.5" customHeight="1">
-      <c r="A70" t="s" s="9">
-        <v>160</v>
+    <row r="70" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="9" t="s">
+        <v>159</v>
       </c>
       <c r="B70" s="17">
         <v>1.625</v>
       </c>
-      <c r="C70" t="s" s="9">
-        <v>199</v>
-      </c>
-      <c r="D70" t="s" s="9">
-        <v>191</v>
+      <c r="C70" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>190</v>
       </c>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" ht="18.5" customHeight="1">
-      <c r="A71" t="s" s="9">
-        <v>160</v>
+    <row r="71" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="9" t="s">
+        <v>159</v>
       </c>
       <c r="B71" s="17">
         <v>1.625</v>
       </c>
-      <c r="C71" t="s" s="9">
-        <v>199</v>
-      </c>
-      <c r="D71" t="s" s="9">
-        <v>192</v>
+      <c r="C71" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" ht="18.5" customHeight="1">
-      <c r="A72" t="s" s="9">
-        <v>160</v>
+    <row r="72" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="9" t="s">
+        <v>159</v>
       </c>
       <c r="B72" s="17">
         <v>1.333333333333333</v>
       </c>
-      <c r="C72" t="s" s="9">
-        <v>199</v>
-      </c>
-      <c r="D72" t="s" s="9">
-        <v>188</v>
+      <c r="C72" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" ht="18.5" customHeight="1">
-      <c r="A73" t="s" s="9">
-        <v>162</v>
+    <row r="73" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="B73" s="17">
         <v>1.333333333333333</v>
       </c>
-      <c r="C73" t="s" s="9">
-        <v>199</v>
-      </c>
-      <c r="D73" t="s" s="9">
-        <v>189</v>
+      <c r="C73" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>188</v>
       </c>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" ht="18.5" customHeight="1">
-      <c r="A74" t="s" s="9">
-        <v>162</v>
+    <row r="74" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="B74" s="17">
         <v>1.333333333333333</v>
       </c>
-      <c r="C74" t="s" s="9">
-        <v>199</v>
-      </c>
-      <c r="D74" t="s" s="9">
-        <v>190</v>
+      <c r="C74" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" ht="18.5" customHeight="1">
-      <c r="A75" t="s" s="9">
-        <v>162</v>
+    <row r="75" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="B75" s="17">
         <v>1.333333333333333</v>
       </c>
-      <c r="C75" t="s" s="9">
-        <v>199</v>
-      </c>
-      <c r="D75" t="s" s="9">
-        <v>191</v>
+      <c r="C75" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>190</v>
       </c>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" ht="18.5" customHeight="1">
-      <c r="A76" t="s" s="9">
-        <v>162</v>
+    <row r="76" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="B76" s="17">
         <v>1.333333333333333</v>
       </c>
-      <c r="C76" t="s" s="9">
-        <v>199</v>
-      </c>
-      <c r="D76" t="s" s="9">
-        <v>192</v>
+      <c r="C76" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" ht="18.5" customHeight="1">
-      <c r="A77" t="s" s="9">
-        <v>162</v>
+    <row r="77" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="B77" s="17">
         <v>1.333333333333333</v>
       </c>
-      <c r="C77" t="s" s="9">
-        <v>199</v>
-      </c>
-      <c r="D77" t="s" s="9">
-        <v>193</v>
+      <c r="C77" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>192</v>
       </c>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" ht="18.5" customHeight="1">
-      <c r="A78" t="s" s="9">
-        <v>164</v>
+    <row r="78" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="9" t="s">
+        <v>163</v>
       </c>
       <c r="B78" s="17">
         <v>1.333333333333333</v>
       </c>
-      <c r="C78" t="s" s="9">
-        <v>199</v>
-      </c>
-      <c r="D78" t="s" s="9">
-        <v>194</v>
+      <c r="C78" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>193</v>
       </c>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" ht="18.5" customHeight="1">
-      <c r="A79" t="s" s="9">
-        <v>164</v>
+    <row r="79" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="9" t="s">
+        <v>163</v>
       </c>
       <c r="B79" s="17">
         <v>1.333333333333333</v>
       </c>
-      <c r="C79" t="s" s="9">
-        <v>199</v>
-      </c>
-      <c r="D79" t="s" s="9">
-        <v>195</v>
+      <c r="C79" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" ht="18.5" customHeight="1">
-      <c r="A80" t="s" s="9">
-        <v>164</v>
+    <row r="80" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="9" t="s">
+        <v>163</v>
       </c>
       <c r="B80" s="17">
         <v>1.333333333333333</v>
       </c>
-      <c r="C80" t="s" s="9">
-        <v>199</v>
-      </c>
-      <c r="D80" t="s" s="9">
-        <v>196</v>
+      <c r="C80" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>195</v>
       </c>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" ht="18.5" customHeight="1">
-      <c r="A81" t="s" s="9">
-        <v>164</v>
+    <row r="81" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="9" t="s">
+        <v>163</v>
       </c>
       <c r="B81" s="17">
         <v>1.333333333333333</v>
       </c>
-      <c r="C81" t="s" s="9">
-        <v>199</v>
-      </c>
-      <c r="D81" t="s" s="9">
-        <v>197</v>
+      <c r="C81" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>196</v>
       </c>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" ht="18.5" customHeight="1">
-      <c r="A82" t="s" s="9">
-        <v>166</v>
+    <row r="82" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="B82" s="17">
         <v>1.541666666666667</v>
       </c>
-      <c r="C82" t="s" s="9">
-        <v>199</v>
-      </c>
-      <c r="D82" t="s" s="9">
-        <v>193</v>
+      <c r="C82" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>192</v>
       </c>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" ht="18.5" customHeight="1">
-      <c r="A83" t="s" s="9">
-        <v>166</v>
+    <row r="83" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="B83" s="17">
         <v>1.541666666666667</v>
       </c>
-      <c r="C83" t="s" s="9">
-        <v>199</v>
-      </c>
-      <c r="D83" t="s" s="9">
-        <v>194</v>
+      <c r="C83" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>193</v>
       </c>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" ht="18.5" customHeight="1">
-      <c r="A84" t="s" s="9">
-        <v>166</v>
+    <row r="84" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="B84" s="17">
         <v>1.541666666666667</v>
       </c>
-      <c r="C84" t="s" s="9">
-        <v>199</v>
-      </c>
-      <c r="D84" t="s" s="9">
-        <v>195</v>
+      <c r="C84" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" ht="18.5" customHeight="1">
-      <c r="A85" t="s" s="9">
-        <v>166</v>
+    <row r="85" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="B85" s="17">
         <v>1.625</v>
       </c>
-      <c r="C85" t="s" s="9">
-        <v>199</v>
-      </c>
-      <c r="D85" t="s" s="9">
-        <v>193</v>
+      <c r="C85" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>192</v>
       </c>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" ht="18.5" customHeight="1">
-      <c r="A86" t="s" s="9">
-        <v>166</v>
+    <row r="86" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="B86" s="17">
         <v>1.625</v>
       </c>
-      <c r="C86" t="s" s="9">
-        <v>199</v>
-      </c>
-      <c r="D86" t="s" s="9">
-        <v>194</v>
+      <c r="C86" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>193</v>
       </c>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" ht="18.5" customHeight="1">
-      <c r="A87" t="s" s="9">
-        <v>166</v>
+    <row r="87" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="B87" s="17">
         <v>1.541666666666667</v>
       </c>
-      <c r="C87" t="s" s="9">
-        <v>199</v>
-      </c>
-      <c r="D87" t="s" s="9">
-        <v>196</v>
+      <c r="C87" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>195</v>
       </c>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" ht="18.5" customHeight="1">
-      <c r="A88" t="s" s="9">
-        <v>168</v>
+    <row r="88" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="9" t="s">
+        <v>167</v>
       </c>
       <c r="B88" s="17">
         <v>1.541666666666667</v>
       </c>
-      <c r="C88" t="s" s="9">
-        <v>199</v>
-      </c>
-      <c r="D88" t="s" s="9">
-        <v>197</v>
+      <c r="C88" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>196</v>
       </c>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" ht="18.5" customHeight="1">
-      <c r="A89" t="s" s="9">
-        <v>168</v>
+    <row r="89" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="9" t="s">
+        <v>167</v>
       </c>
       <c r="B89" s="17">
         <v>1.625</v>
       </c>
-      <c r="C89" t="s" s="9">
-        <v>199</v>
-      </c>
-      <c r="D89" t="s" s="9">
-        <v>195</v>
+      <c r="C89" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" ht="18.5" customHeight="1">
-      <c r="A90" t="s" s="9">
-        <v>168</v>
+    <row r="90" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="9" t="s">
+        <v>167</v>
       </c>
       <c r="B90" s="17">
         <v>1.625</v>
       </c>
-      <c r="C90" t="s" s="9">
-        <v>199</v>
-      </c>
-      <c r="D90" t="s" s="9">
-        <v>196</v>
+      <c r="C90" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>195</v>
       </c>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" ht="18.5" customHeight="1">
-      <c r="A91" t="s" s="9">
-        <v>168</v>
+    <row r="91" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="9" t="s">
+        <v>167</v>
       </c>
       <c r="B91" s="17">
         <v>1.625</v>
       </c>
-      <c r="C91" t="s" s="9">
-        <v>199</v>
-      </c>
-      <c r="D91" t="s" s="9">
-        <v>197</v>
+      <c r="C91" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>196</v>
       </c>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" ht="18.5" customHeight="1">
-      <c r="A92" t="s" s="9">
-        <v>170</v>
+    <row r="92" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="B92" s="17">
         <v>1.541666666666667</v>
       </c>
-      <c r="C92" t="s" s="9">
-        <v>200</v>
-      </c>
-      <c r="D92" t="s" s="9">
-        <v>188</v>
+      <c r="C92" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" ht="18.5" customHeight="1">
-      <c r="A93" t="s" s="9">
-        <v>170</v>
+    <row r="93" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="B93" s="17">
         <v>1.541666666666667</v>
       </c>
-      <c r="C93" t="s" s="9">
-        <v>200</v>
-      </c>
-      <c r="D93" t="s" s="9">
-        <v>189</v>
+      <c r="C93" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>188</v>
       </c>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" ht="18.5" customHeight="1">
-      <c r="A94" t="s" s="9">
-        <v>170</v>
+    <row r="94" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="B94" s="17">
         <v>1.541666666666667</v>
       </c>
-      <c r="C94" t="s" s="9">
-        <v>200</v>
-      </c>
-      <c r="D94" t="s" s="9">
-        <v>190</v>
+      <c r="C94" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" ht="18.5" customHeight="1">
-      <c r="A95" t="s" s="9">
-        <v>170</v>
+    <row r="95" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="B95" s="17">
         <v>1.625</v>
       </c>
-      <c r="C95" t="s" s="9">
-        <v>200</v>
-      </c>
-      <c r="D95" t="s" s="9">
-        <v>188</v>
+      <c r="C95" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" ht="18.5" customHeight="1">
-      <c r="A96" t="s" s="9">
-        <v>172</v>
+    <row r="96" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="9" t="s">
+        <v>171</v>
       </c>
       <c r="B96" s="17">
         <v>1.625</v>
       </c>
-      <c r="C96" t="s" s="9">
-        <v>200</v>
-      </c>
-      <c r="D96" t="s" s="9">
-        <v>189</v>
+      <c r="C96" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>188</v>
       </c>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" ht="18.5" customHeight="1">
-      <c r="A97" t="s" s="9">
-        <v>172</v>
+    <row r="97" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="9" t="s">
+        <v>171</v>
       </c>
       <c r="B97" s="17">
         <v>1.541666666666667</v>
       </c>
-      <c r="C97" t="s" s="9">
-        <v>200</v>
-      </c>
-      <c r="D97" t="s" s="9">
-        <v>191</v>
+      <c r="C97" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>190</v>
       </c>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" ht="18.5" customHeight="1">
-      <c r="A98" t="s" s="9">
-        <v>172</v>
+    <row r="98" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="9" t="s">
+        <v>171</v>
       </c>
       <c r="B98" s="17">
         <v>1.541666666666667</v>
       </c>
-      <c r="C98" t="s" s="9">
-        <v>200</v>
-      </c>
-      <c r="D98" t="s" s="9">
-        <v>192</v>
+      <c r="C98" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" ht="18.5" customHeight="1">
-      <c r="A99" t="s" s="9">
-        <v>174</v>
+    <row r="99" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="B99" s="17">
         <v>1.625</v>
       </c>
-      <c r="C99" t="s" s="9">
-        <v>200</v>
-      </c>
-      <c r="D99" t="s" s="9">
-        <v>190</v>
+      <c r="C99" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" ht="18.5" customHeight="1">
-      <c r="A100" t="s" s="9">
-        <v>174</v>
+    <row r="100" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="B100" s="17">
         <v>1.625</v>
       </c>
-      <c r="C100" t="s" s="9">
-        <v>200</v>
-      </c>
-      <c r="D100" t="s" s="9">
-        <v>191</v>
+      <c r="C100" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>190</v>
       </c>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" ht="18.5" customHeight="1">
-      <c r="A101" t="s" s="9">
-        <v>174</v>
+    <row r="101" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="B101" s="17">
         <v>1.625</v>
       </c>
-      <c r="C101" t="s" s="9">
-        <v>200</v>
-      </c>
-      <c r="D101" t="s" s="9">
-        <v>192</v>
+      <c r="C101" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" ht="18.5" customHeight="1">
-      <c r="A102" t="s" s="9">
-        <v>174</v>
+    <row r="102" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="B102" s="17">
         <v>1.333333333333333</v>
       </c>
-      <c r="C102" t="s" s="9">
-        <v>200</v>
-      </c>
-      <c r="D102" t="s" s="9">
-        <v>188</v>
+      <c r="C102" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" ht="18.5" customHeight="1">
-      <c r="A103" t="s" s="9">
-        <v>176</v>
+    <row r="103" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="B103" s="17">
         <v>1.333333333333333</v>
       </c>
-      <c r="C103" t="s" s="9">
-        <v>200</v>
-      </c>
-      <c r="D103" t="s" s="9">
-        <v>189</v>
+      <c r="C103" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>188</v>
       </c>
       <c r="E103" s="3"/>
     </row>
-    <row r="104" ht="18.5" customHeight="1">
-      <c r="A104" t="s" s="9">
-        <v>176</v>
+    <row r="104" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="B104" s="17">
         <v>1.333333333333333</v>
       </c>
-      <c r="C104" t="s" s="9">
-        <v>200</v>
-      </c>
-      <c r="D104" t="s" s="9">
-        <v>190</v>
+      <c r="C104" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="E104" s="3"/>
     </row>
-    <row r="105" ht="18.5" customHeight="1">
-      <c r="A105" t="s" s="9">
-        <v>176</v>
+    <row r="105" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="B105" s="17">
         <v>1.333333333333333</v>
       </c>
-      <c r="C105" t="s" s="9">
-        <v>200</v>
-      </c>
-      <c r="D105" t="s" s="9">
-        <v>191</v>
+      <c r="C105" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>190</v>
       </c>
       <c r="E105" s="3"/>
     </row>
-    <row r="106" ht="18.5" customHeight="1">
-      <c r="A106" t="s" s="9">
-        <v>176</v>
+    <row r="106" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="B106" s="17">
         <v>1.333333333333333</v>
       </c>
-      <c r="C106" t="s" s="9">
-        <v>200</v>
-      </c>
-      <c r="D106" t="s" s="9">
-        <v>192</v>
+      <c r="C106" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="E106" s="3"/>
     </row>
-    <row r="107" ht="18.5" customHeight="1">
-      <c r="A107" t="s" s="9">
-        <v>176</v>
+    <row r="107" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="B107" s="17">
         <v>1.333333333333333</v>
       </c>
-      <c r="C107" t="s" s="9">
-        <v>200</v>
-      </c>
-      <c r="D107" t="s" s="9">
-        <v>193</v>
+      <c r="C107" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>192</v>
       </c>
       <c r="E107" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6198,37 +6393,36 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:IV11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="18.8516" style="18" customWidth="1"/>
-    <col min="3" max="5" width="10.8516" style="18" customWidth="1"/>
-    <col min="6" max="256" width="10.8516" style="18" customWidth="1"/>
+    <col min="1" max="2" width="18.83203125" style="18" customWidth="1"/>
+    <col min="3" max="256" width="10.83203125" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.5" customHeight="1">
-      <c r="A1" t="s" s="9">
-        <v>186</v>
-      </c>
-      <c r="B1" t="s" s="9">
+    <row r="1" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>201</v>
-      </c>
-      <c r="C1" t="s" s="9">
-        <v>202</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" ht="18.5" customHeight="1">
-      <c r="A2" t="s" s="9">
-        <v>188</v>
-      </c>
-      <c r="B2" t="s" s="9">
-        <v>203</v>
+    <row r="2" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="C2" s="10">
         <v>20</v>
@@ -6236,12 +6430,12 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="18.5" customHeight="1">
-      <c r="A3" t="s" s="9">
-        <v>189</v>
-      </c>
-      <c r="B3" t="s" s="9">
-        <v>204</v>
+    <row r="3" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>203</v>
       </c>
       <c r="C3" s="10">
         <v>24</v>
@@ -6249,12 +6443,12 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="18.5" customHeight="1">
-      <c r="A4" t="s" s="9">
-        <v>190</v>
-      </c>
-      <c r="B4" t="s" s="9">
-        <v>205</v>
+    <row r="4" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>204</v>
       </c>
       <c r="C4" s="10">
         <v>30</v>
@@ -6262,12 +6456,12 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="18.5" customHeight="1">
-      <c r="A5" t="s" s="9">
-        <v>191</v>
-      </c>
-      <c r="B5" t="s" s="9">
-        <v>206</v>
+    <row r="5" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>205</v>
       </c>
       <c r="C5" s="10">
         <v>37</v>
@@ -6275,12 +6469,12 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="18.5" customHeight="1">
-      <c r="A6" t="s" s="9">
-        <v>192</v>
-      </c>
-      <c r="B6" t="s" s="9">
-        <v>207</v>
+    <row r="6" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>206</v>
       </c>
       <c r="C6" s="10">
         <v>26</v>
@@ -6288,12 +6482,12 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="18.5" customHeight="1">
-      <c r="A7" t="s" s="9">
-        <v>193</v>
-      </c>
-      <c r="B7" t="s" s="9">
-        <v>208</v>
+    <row r="7" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>207</v>
       </c>
       <c r="C7" s="10">
         <v>28</v>
@@ -6301,12 +6495,12 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="18.5" customHeight="1">
-      <c r="A8" t="s" s="9">
-        <v>194</v>
-      </c>
-      <c r="B8" t="s" s="9">
-        <v>209</v>
+    <row r="8" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>208</v>
       </c>
       <c r="C8" s="10">
         <v>34</v>
@@ -6314,12 +6508,12 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="18.5" customHeight="1">
-      <c r="A9" t="s" s="9">
-        <v>195</v>
-      </c>
-      <c r="B9" t="s" s="9">
-        <v>210</v>
+    <row r="9" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>209</v>
       </c>
       <c r="C9" s="10">
         <v>40</v>
@@ -6327,12 +6521,12 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="18.5" customHeight="1">
-      <c r="A10" t="s" s="9">
-        <v>196</v>
-      </c>
-      <c r="B10" t="s" s="9">
-        <v>211</v>
+    <row r="10" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>210</v>
       </c>
       <c r="C10" s="10">
         <v>28</v>
@@ -6340,12 +6534,12 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" ht="18.5" customHeight="1">
-      <c r="A11" t="s" s="9">
-        <v>197</v>
-      </c>
-      <c r="B11" t="s" s="9">
-        <v>212</v>
+    <row r="11" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>211</v>
       </c>
       <c r="C11" s="10">
         <v>28</v>
@@ -6355,7 +6549,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
